--- a/function.xlsx
+++ b/function.xlsx
@@ -1,42 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,80 +54,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,227 +355,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A11:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D1" t="n">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E11">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E12">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E13">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E14">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B15">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E15">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E16">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B17">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E17">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B18">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C18">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E18">
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B19">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C19">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E19">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B20">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C20">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E20">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/function.xlsx
+++ b/function.xlsx
@@ -1,41 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,19 +54,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,214 +421,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>제목</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" t="n">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>6</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>7</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>16</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A8:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>